--- a/biology/Zoologie/Hyperolius_acuticephalus/Hyperolius_acuticephalus.xlsx
+++ b/biology/Zoologie/Hyperolius_acuticephalus/Hyperolius_acuticephalus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyperolius acuticephalus est une espèce d'amphibiens de la famille des Hyperoliidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyperolius acuticephalus est une espèce d'amphibiens de la famille des Hyperoliidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la République centrafricaine. Le lieu décrit par Ernst Ahl "Ngoto, Lobajegebiet" n'est pas connu exactement mais il existe une ville appelée Ngotto dans la préfecture de Lobaye[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la République centrafricaine. Le lieu décrit par Ernst Ahl "Ngoto, Lobajegebiet" n'est pas connu exactement mais il existe une ville appelée Ngotto dans la préfecture de Lobaye,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ahl, 1931 : Amphibia, Anura III, Polypedatidae. Das Tierreich, vol. 55, p. 477.</t>
         </is>
